--- a/indicadores/tablas/220101.xlsx
+++ b/indicadores/tablas/220101.xlsx
@@ -501,7 +501,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -803,7 +803,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">

--- a/indicadores/tablas/220101.xlsx
+++ b/indicadores/tablas/220101.xlsx
@@ -501,7 +501,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -803,7 +803,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">

--- a/indicadores/tablas/220101.xlsx
+++ b/indicadores/tablas/220101.xlsx
@@ -171,7 +171,7 @@
     <t xml:space="preserve">CITA</t>
   </si>
   <si>
-    <t xml:space="preserve">UMAD con base en DINEM - MIDES / MIDES-MEF-OPP</t>
+    <t xml:space="preserve">UMAD con base en DINEM - MIDES / Datos 2019 y 2020 MIDES-MEF-OPP</t>
   </si>
 </sst>
 </file>

--- a/indicadores/tablas/220101.xlsx
+++ b/indicadores/tablas/220101.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Datos" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Ficha técnica" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Metadata" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -21,163 +21,175 @@
     <t xml:space="preserve">Valor</t>
   </si>
   <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1986</t>
+  </si>
+  <si>
     <t xml:space="preserve">1985</t>
   </si>
   <si>
-    <t xml:space="preserve">1986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1990</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020</t>
-  </si>
-  <si>
     <t xml:space="preserve"/>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve">DERECHO</t>
+    <t xml:space="preserve">nomindicador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gasto público en vivienda, medio ambiente, agua y saneamiento como porcentaje del producto bruto interno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derecho</t>
   </si>
   <si>
     <t xml:space="preserve">Vivienda</t>
   </si>
   <si>
-    <t xml:space="preserve">CONINDICADOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prioridad macroeconómica del gasto público en vivienda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOMINDICADOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gasto público en vivienda como porcentaje del producto bruto interno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEFINICIÓN</t>
+    <t xml:space="preserve">conindicador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prioridad macroeconómica del gasto público en vivienda, medio ambiente, agua y saneamiento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tipoind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Políticas Públicas y Esfuerzo Económico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">definicion</t>
   </si>
   <si>
     <t xml:space="preserve">El indicador mide el peso del gasto público en vivienda en el Producto Bruto Interno (PBI).</t>
   </si>
   <si>
-    <t xml:space="preserve">CÁLCULO</t>
+    <t xml:space="preserve">calculo</t>
   </si>
   <si>
     <t xml:space="preserve">Para cada año calcular: (Gasto público en vivienda / PBI)*100</t>
   </si>
   <si>
-    <t xml:space="preserve">TIPOIND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Políticas Públicas y Esfuerzo Económico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CITA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UMAD con base en DINEM - MIDES / Datos 2019 y 2020 MIDES-MEF-OPP</t>
+    <t xml:space="preserve">observaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sin observaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UMAD con base en DINEM - MIDES hasta 2018, a partir de 2019 MIDES-MEF-OPP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mirador DESCA - UMAD/FCS – INDDHH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -496,12 +508,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -516,7 +528,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="3">
@@ -524,7 +536,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="4">
@@ -532,7 +544,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="5">
@@ -540,7 +552,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="6">
@@ -548,7 +560,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="7">
@@ -556,7 +568,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>0.4</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="8">
@@ -564,7 +576,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="9">
@@ -572,7 +584,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="10">
@@ -580,7 +592,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="11">
@@ -588,7 +600,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="12">
@@ -596,7 +608,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="13">
@@ -604,7 +616,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="14">
@@ -612,7 +624,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="15">
@@ -620,7 +632,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="16">
@@ -628,7 +640,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="17">
@@ -636,7 +648,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="18">
@@ -644,7 +656,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="19">
@@ -668,7 +680,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="22">
@@ -676,7 +688,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="23">
@@ -684,7 +696,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="24">
@@ -692,7 +704,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="25">
@@ -700,7 +712,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="26">
@@ -708,7 +720,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="27">
@@ -716,7 +728,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="28">
@@ -724,7 +736,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="29">
@@ -732,7 +744,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="30">
@@ -740,7 +752,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="31">
@@ -748,7 +760,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="32">
@@ -756,7 +768,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="n">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="33">
@@ -764,7 +776,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="34">
@@ -772,7 +784,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="35">
@@ -780,7 +792,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="36">
@@ -788,7 +800,15 @@
         <v>36</v>
       </c>
       <c r="B36" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
@@ -798,75 +818,91 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/indicadores/tablas/220101.xlsx
+++ b/indicadores/tablas/220101.xlsx
@@ -13,12 +13,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
   <si>
-    <t xml:space="preserve">Valor</t>
+    <t xml:space="preserve">MIDES-MEF-OPP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DINEM - MIDES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022</t>
   </si>
   <si>
     <t xml:space="preserve">2021</t>
@@ -129,9 +138,6 @@
     <t xml:space="preserve">1985</t>
   </si>
   <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -174,7 +180,13 @@
     <t xml:space="preserve">observaciones</t>
   </si>
   <si>
-    <t xml:space="preserve">Sin observaciones</t>
+    <t xml:space="preserve">Las dos líneas representan metodologías ligeramente diferentes de cálculo. De acuerdo a lo informado en el Observatorio Social de MIDES, a partir del año 2016 se introdujo cambios en la metodología de estimación del Gasto Público Social producto de los cambios en la información brindada por el Presupuesto Nacional, lo cual llevó a trabajar en base al presupuesto por áreas programáticas (AP) de los incisos gubernamentales. El Gasto Público Social en Cultura y Deporte era considerado anteriormente bajo la denominación de Gasto Público Social No Convencional, definido como un subcomponente heterogéneo del GPS. La función Cultura y Deporte agrupa los gastos en museos, bibliotecas, organizaciones de prensa, servicios de televisión, deportes, y que antes también incluía otros conceptos que aludían a un aspecto multidisciplinario de los programas sociales. Se hizo una revisión de forma de dar consistencia en los conceptos para la serie desde 2015. La estimación siempre refiere a montos en pesos corrientes monto obligado intervenido por balance a partir de la información proporcionada mayoritariamente por Contaduría General de la Nación (CGN) del Ministerio de Economía y Finanzas (MEF). Para los años 2020 y 2021 se incluyen las erogaciones del fondo COVID destinadas a atender la emergencia sanitaria.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">actualizacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julio 2025</t>
   </si>
   <si>
     <t xml:space="preserve">cita</t>
@@ -522,292 +534,377 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>1.2</v>
-      </c>
+        <v>1.4</v>
+      </c>
+      <c r="C2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
         <v>1.3</v>
       </c>
+      <c r="C3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>1.4</v>
-      </c>
+        <v>1.2</v>
+      </c>
+      <c r="C4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>1.6</v>
-      </c>
+        <v>1.3</v>
+      </c>
+      <c r="C5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>1.6</v>
-      </c>
+        <v>1.4</v>
+      </c>
+      <c r="C6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C7" t="n">
         <v>1.6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8" t="n">
         <v>1.5</v>
       </c>
+      <c r="C8" t="n">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C10" t="n">
         <v>1.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="C11" t="n">
         <v>1.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="C12" t="n">
         <v>1.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C13" t="n">
         <v>1.5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15" t="n">
         <v>1.4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18" t="n">
         <v>1.3</v>
       </c>
+      <c r="C18" t="n">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19" t="n">
         <v>1.4</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B20" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.3</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="n">
+        <v>22</v>
+      </c>
+      <c r="B21"/>
+      <c r="C21" t="n">
         <v>1.4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="n">
-        <v>1.6</v>
+        <v>23</v>
+      </c>
+      <c r="B22"/>
+      <c r="C22" t="n">
+        <v>1.4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="n">
-        <v>1.2</v>
+        <v>24</v>
+      </c>
+      <c r="B23"/>
+      <c r="C23" t="n">
+        <v>1.4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="n">
-        <v>1.2</v>
+        <v>25</v>
+      </c>
+      <c r="B24"/>
+      <c r="C24" t="n">
+        <v>1.6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="n">
-        <v>1.1</v>
+        <v>26</v>
+      </c>
+      <c r="B25"/>
+      <c r="C25" t="n">
+        <v>1.2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="n">
+        <v>27</v>
+      </c>
+      <c r="B26"/>
+      <c r="C26" t="n">
         <v>1.2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="n">
-        <v>1.2</v>
+        <v>28</v>
+      </c>
+      <c r="B27"/>
+      <c r="C27" t="n">
+        <v>1.1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="n">
-        <v>0.7</v>
+        <v>29</v>
+      </c>
+      <c r="B28"/>
+      <c r="C28" t="n">
+        <v>1.2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" t="n">
-        <v>0.8</v>
+        <v>30</v>
+      </c>
+      <c r="B29"/>
+      <c r="C29" t="n">
+        <v>1.2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" t="n">
+        <v>31</v>
+      </c>
+      <c r="B30"/>
+      <c r="C30" t="n">
         <v>0.7</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" t="n">
-        <v>0.6</v>
+        <v>32</v>
+      </c>
+      <c r="B31"/>
+      <c r="C31" t="n">
+        <v>0.8</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" t="n">
-        <v>0.4</v>
+        <v>33</v>
+      </c>
+      <c r="B32"/>
+      <c r="C32" t="n">
+        <v>0.7</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" t="n">
-        <v>0.5</v>
+        <v>34</v>
+      </c>
+      <c r="B33"/>
+      <c r="C33" t="n">
+        <v>0.6</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" t="n">
-        <v>0.6</v>
+        <v>35</v>
+      </c>
+      <c r="B34"/>
+      <c r="C34" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" t="n">
-        <v>0.7</v>
+        <v>36</v>
+      </c>
+      <c r="B35"/>
+      <c r="C35" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" t="n">
-        <v>0.7</v>
+        <v>37</v>
+      </c>
+      <c r="B36"/>
+      <c r="C36" t="n">
+        <v>0.6</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" t="n">
+        <v>38</v>
+      </c>
+      <c r="B37"/>
+      <c r="C37" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38"/>
+      <c r="C38" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39"/>
+      <c r="C39" t="n">
         <v>0.7</v>
       </c>
     </row>
@@ -827,82 +924,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
